--- a/hw1229_空空_数学类测试/test_case/测试数学类的数据.xlsx
+++ b/hw1229_空空_数学类测试/test_case/测试数学类的数据.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9204" windowWidth="23040"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9204" windowWidth="23040"/>
   </bookViews>
   <sheets>
     <sheet name="data_add" sheetId="1" state="visible" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <t>两个0相加</t>
   </si>
   <si>
-    <t>Failed</t>
+    <t>Pass</t>
   </si>
   <si>
     <t>两个正数相加</t>
@@ -122,6 +122,21 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -130,42 +145,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -213,7 +199,21 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -221,31 +221,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -267,7 +243,32 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -281,187 +282,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,17 +476,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,17 +529,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,166 +559,175 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="22" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="8" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="5" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="19" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="10" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="10" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="23" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="18" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="18" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="24" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="1" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1071,8 +1075,8 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="0"/>
@@ -1294,17 +1298,17 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.4</v>
+      <c r="C10" s="2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>-5.2</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1</v>
+        <v>-5</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.09999999999999998</v>
+        <v>-5</v>
       </c>
       <c r="G10" t="s">
         <v>8</v>
@@ -1346,8 +1350,8 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.842105263157899" defaultRowHeight="14.1" outlineLevelCol="0"/>
@@ -1392,9 +1396,14 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2">
-        <f>C2-D2</f>
-        <v/>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1410,9 +1419,14 @@
       <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="E3">
-        <f>C3-D3</f>
-        <v/>
+      <c r="E3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1428,9 +1442,14 @@
       <c r="D4" t="n">
         <v>-2</v>
       </c>
-      <c r="E4">
-        <f>C4-D4</f>
-        <v/>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1446,9 +1465,14 @@
       <c r="D5" t="n">
         <v>-2</v>
       </c>
-      <c r="E5">
-        <f>C5-D5</f>
-        <v/>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1464,9 +1488,14 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6">
-        <f>C6-D6</f>
-        <v/>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1482,9 +1511,14 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7">
-        <f>C7-D7</f>
-        <v/>
+      <c r="E7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1500,9 +1534,14 @@
       <c r="D8" t="n">
         <v>0.2</v>
       </c>
-      <c r="E8">
-        <f>C8-D8</f>
-        <v/>
+      <c r="E8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1518,9 +1557,14 @@
       <c r="D9" t="n">
         <v>-0.2</v>
       </c>
-      <c r="E9">
-        <f>C9-D9</f>
-        <v/>
+      <c r="E9" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1536,9 +1580,14 @@
       <c r="D10" t="n">
         <v>0.4</v>
       </c>
-      <c r="E10">
-        <f>C10-D10</f>
-        <v/>
+      <c r="E10" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1554,9 +1603,14 @@
       <c r="D11" t="n">
         <v>-2</v>
       </c>
-      <c r="E11">
-        <f>C11-D11</f>
-        <v/>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
